--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adm-Ramp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adm-Ramp2.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Adm</t>
+  </si>
+  <si>
+    <t>Ramp2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Adm</t>
-  </si>
-  <si>
-    <t>Ramp2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.600084</v>
+        <v>11.43620533333333</v>
       </c>
       <c r="H2">
-        <v>37.800252</v>
+        <v>34.308616</v>
       </c>
       <c r="I2">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="J2">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>92.46980033333334</v>
+        <v>89.64587133333333</v>
       </c>
       <c r="N2">
-        <v>277.409401</v>
+        <v>268.937614</v>
       </c>
       <c r="O2">
-        <v>0.860541101571051</v>
+        <v>0.8619668097526958</v>
       </c>
       <c r="P2">
-        <v>0.860541101571051</v>
+        <v>0.8619668097526956</v>
       </c>
       <c r="Q2">
-        <v>1165.127251663228</v>
+        <v>1025.20859185358</v>
       </c>
       <c r="R2">
-        <v>10486.14526496905</v>
+        <v>9226.877326682225</v>
       </c>
       <c r="S2">
-        <v>0.3536810354897416</v>
+        <v>0.336814870977143</v>
       </c>
       <c r="T2">
-        <v>0.3536810354897416</v>
+        <v>0.3368148709771429</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.600084</v>
+        <v>11.43620533333333</v>
       </c>
       <c r="H3">
-        <v>37.800252</v>
+        <v>34.308616</v>
       </c>
       <c r="I3">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="J3">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.299099</v>
       </c>
       <c r="O3">
-        <v>0.109499986043824</v>
+        <v>0.1131364679697596</v>
       </c>
       <c r="P3">
-        <v>0.109499986043824</v>
+        <v>0.1131364679697596</v>
       </c>
       <c r="Q3">
-        <v>148.257204174772</v>
+        <v>134.5625814152204</v>
       </c>
       <c r="R3">
-        <v>1334.314837572948</v>
+        <v>1211.063232736984</v>
       </c>
       <c r="S3">
-        <v>0.04500432155929316</v>
+        <v>0.04420825074805042</v>
       </c>
       <c r="T3">
-        <v>0.04500432155929316</v>
+        <v>0.04420825074805041</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.600084</v>
+        <v>11.43620533333333</v>
       </c>
       <c r="H4">
-        <v>37.800252</v>
+        <v>34.308616</v>
       </c>
       <c r="I4">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="J4">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.7466693333333333</v>
+        <v>0.02738933333333333</v>
       </c>
       <c r="N4">
-        <v>2.240008</v>
+        <v>0.082168</v>
       </c>
       <c r="O4">
-        <v>0.00694864321432267</v>
+        <v>0.0002633550873391757</v>
       </c>
       <c r="P4">
-        <v>0.006948643214322671</v>
+        <v>0.0002633550873391756</v>
       </c>
       <c r="Q4">
-        <v>9.408096320224001</v>
+        <v>0.3132300399431112</v>
       </c>
       <c r="R4">
-        <v>84.672866882016</v>
+        <v>2.819070359488</v>
       </c>
       <c r="S4">
-        <v>0.002855881401601473</v>
+        <v>0.0001029064098056953</v>
       </c>
       <c r="T4">
-        <v>0.002855881401601473</v>
+        <v>0.0001029064098056952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.600084</v>
+        <v>11.43620533333333</v>
       </c>
       <c r="H5">
-        <v>37.800252</v>
+        <v>34.308616</v>
       </c>
       <c r="I5">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="J5">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.120135666666667</v>
+        <v>2.522098333333334</v>
       </c>
       <c r="N5">
-        <v>6.360407</v>
+        <v>7.566295</v>
       </c>
       <c r="O5">
-        <v>0.01973037549012343</v>
+        <v>0.02425058758347493</v>
       </c>
       <c r="P5">
-        <v>0.01973037549012344</v>
+        <v>0.02425058758347493</v>
       </c>
       <c r="Q5">
-        <v>26.713887491396</v>
+        <v>28.84323441085778</v>
       </c>
       <c r="R5">
-        <v>240.424987422564</v>
+        <v>259.58910969772</v>
       </c>
       <c r="S5">
-        <v>0.008109153207450964</v>
+        <v>0.009475954799688236</v>
       </c>
       <c r="T5">
-        <v>0.008109153207450965</v>
+        <v>0.009475954799688234</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.600084</v>
+        <v>11.43620533333333</v>
       </c>
       <c r="H6">
-        <v>37.800252</v>
+        <v>34.308616</v>
       </c>
       <c r="I6">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="J6">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3524423333333334</v>
+        <v>0.03980966666666667</v>
       </c>
       <c r="N6">
-        <v>1.057327</v>
+        <v>0.119429</v>
       </c>
       <c r="O6">
-        <v>0.003279893680678885</v>
+        <v>0.000382779606730484</v>
       </c>
       <c r="P6">
-        <v>0.003279893680678885</v>
+        <v>0.0003827796067304839</v>
       </c>
       <c r="Q6">
-        <v>4.440803005156001</v>
+        <v>0.4552715222515556</v>
       </c>
       <c r="R6">
-        <v>39.96722704640401</v>
+        <v>4.097443700264</v>
       </c>
       <c r="S6">
-        <v>0.001348031129670555</v>
+        <v>0.0001495717264225048</v>
       </c>
       <c r="T6">
-        <v>0.001348031129670556</v>
+        <v>0.0001495717264225048</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.59249933333334</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H7">
-        <v>52.77749800000001</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I7">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="J7">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>92.46980033333334</v>
+        <v>89.64587133333333</v>
       </c>
       <c r="N7">
-        <v>277.409401</v>
+        <v>268.937614</v>
       </c>
       <c r="O7">
-        <v>0.860541101571051</v>
+        <v>0.8619668097526958</v>
       </c>
       <c r="P7">
-        <v>0.860541101571051</v>
+        <v>0.8619668097526956</v>
       </c>
       <c r="Q7">
-        <v>1626.774900717633</v>
+        <v>1577.094931667752</v>
       </c>
       <c r="R7">
-        <v>14640.9741064587</v>
+        <v>14193.85438500977</v>
       </c>
       <c r="S7">
-        <v>0.49381681749629</v>
+        <v>0.5181277548288866</v>
       </c>
       <c r="T7">
-        <v>0.49381681749629</v>
+        <v>0.5181277548288865</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.59249933333334</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H8">
-        <v>52.77749800000001</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I8">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="J8">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>35.299099</v>
       </c>
       <c r="O8">
-        <v>0.109499986043824</v>
+        <v>0.1131364679697596</v>
       </c>
       <c r="P8">
-        <v>0.109499986043824</v>
+        <v>0.1131364679697596</v>
       </c>
       <c r="Q8">
-        <v>206.9997918749225</v>
+        <v>206.9997918749224</v>
       </c>
       <c r="R8">
         <v>1862.998126874302</v>
       </c>
       <c r="S8">
-        <v>0.062835969746629</v>
+        <v>0.06800626598982393</v>
       </c>
       <c r="T8">
-        <v>0.062835969746629</v>
+        <v>0.06800626598982393</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.59249933333334</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H9">
-        <v>52.77749800000001</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I9">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="J9">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.7466693333333333</v>
+        <v>0.02738933333333333</v>
       </c>
       <c r="N9">
-        <v>2.240008</v>
+        <v>0.082168</v>
       </c>
       <c r="O9">
-        <v>0.00694864321432267</v>
+        <v>0.0002633550873391757</v>
       </c>
       <c r="P9">
-        <v>0.006948643214322671</v>
+        <v>0.0002633550873391756</v>
       </c>
       <c r="Q9">
-        <v>13.13577974888711</v>
+        <v>0.4818468284071111</v>
       </c>
       <c r="R9">
-        <v>118.222017739984</v>
+        <v>4.336621455664</v>
       </c>
       <c r="S9">
-        <v>0.00398744100862764</v>
+        <v>0.0001583025919118177</v>
       </c>
       <c r="T9">
-        <v>0.00398744100862764</v>
+        <v>0.0001583025919118177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.59249933333334</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H10">
-        <v>52.77749800000001</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I10">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="J10">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.120135666666667</v>
+        <v>2.522098333333334</v>
       </c>
       <c r="N10">
-        <v>6.360407</v>
+        <v>7.566295</v>
       </c>
       <c r="O10">
-        <v>0.01973037549012343</v>
+        <v>0.02425058758347493</v>
       </c>
       <c r="P10">
-        <v>0.01973037549012344</v>
+        <v>0.02425058758347493</v>
       </c>
       <c r="Q10">
-        <v>37.29848530240956</v>
+        <v>44.37001324776778</v>
       </c>
       <c r="R10">
-        <v>335.6863677216861</v>
+        <v>399.3301192299099</v>
       </c>
       <c r="S10">
-        <v>0.01132216835982831</v>
+        <v>0.01457701428377747</v>
       </c>
       <c r="T10">
-        <v>0.01132216835982832</v>
+        <v>0.01457701428377746</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.59249933333334</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H11">
-        <v>52.77749800000001</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I11">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="J11">
-        <v>0.573844545710543</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.3524423333333334</v>
+        <v>0.03980966666666667</v>
       </c>
       <c r="N11">
-        <v>1.057327</v>
+        <v>0.119429</v>
       </c>
       <c r="O11">
-        <v>0.003279893680678885</v>
+        <v>0.000382779606730484</v>
       </c>
       <c r="P11">
-        <v>0.003279893680678885</v>
+        <v>0.0003827796067304839</v>
       </c>
       <c r="Q11">
-        <v>6.200341514205112</v>
+        <v>0.7003515342935556</v>
       </c>
       <c r="R11">
-        <v>55.80307362784602</v>
+        <v>6.303163808641999</v>
       </c>
       <c r="S11">
-        <v>0.001882149099168055</v>
+        <v>0.0002300886020036569</v>
       </c>
       <c r="T11">
-        <v>0.001882149099168056</v>
+        <v>0.0002300886020036568</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.02822</v>
+        <v>0.217234</v>
       </c>
       <c r="H12">
-        <v>0.08466</v>
+        <v>0.651702</v>
       </c>
       <c r="I12">
-        <v>0.0009204998546891055</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="J12">
-        <v>0.0009204998546891056</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>92.46980033333334</v>
+        <v>89.64587133333333</v>
       </c>
       <c r="N12">
-        <v>277.409401</v>
+        <v>268.937614</v>
       </c>
       <c r="O12">
-        <v>0.860541101571051</v>
+        <v>0.8619668097526958</v>
       </c>
       <c r="P12">
-        <v>0.860541101571051</v>
+        <v>0.8619668097526956</v>
       </c>
       <c r="Q12">
-        <v>2.609497765406667</v>
+        <v>19.47413121322533</v>
       </c>
       <c r="R12">
-        <v>23.48547988866</v>
+        <v>175.267180919028</v>
       </c>
       <c r="S12">
-        <v>0.0007921279589501552</v>
+        <v>0.006397895066520492</v>
       </c>
       <c r="T12">
-        <v>0.0007921279589501553</v>
+        <v>0.006397895066520491</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.02822</v>
+        <v>0.217234</v>
       </c>
       <c r="H13">
-        <v>0.08466</v>
+        <v>0.651702</v>
       </c>
       <c r="I13">
-        <v>0.0009204998546891055</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="J13">
-        <v>0.0009204998546891056</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.299099</v>
       </c>
       <c r="O13">
-        <v>0.109499986043824</v>
+        <v>0.1131364679697596</v>
       </c>
       <c r="P13">
-        <v>0.109499986043824</v>
+        <v>0.1131364679697596</v>
       </c>
       <c r="Q13">
-        <v>0.3320468579266666</v>
+        <v>2.556054824055333</v>
       </c>
       <c r="R13">
-        <v>2.98842172134</v>
+        <v>23.004493416498</v>
       </c>
       <c r="S13">
-        <v>0.0001007947212417991</v>
+        <v>0.0008397484010723707</v>
       </c>
       <c r="T13">
-        <v>0.0001007947212417991</v>
+        <v>0.0008397484010723706</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,55 +1275,55 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.217234</v>
+      </c>
+      <c r="H14">
+        <v>0.651702</v>
+      </c>
+      <c r="I14">
+        <v>0.007422437841146218</v>
+      </c>
+      <c r="J14">
+        <v>0.007422437841146218</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.02822</v>
-      </c>
-      <c r="H14">
-        <v>0.08466</v>
-      </c>
-      <c r="I14">
-        <v>0.0009204998546891055</v>
-      </c>
-      <c r="J14">
-        <v>0.0009204998546891056</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M14">
-        <v>0.7466693333333333</v>
+        <v>0.02738933333333333</v>
       </c>
       <c r="N14">
-        <v>2.240008</v>
+        <v>0.082168</v>
       </c>
       <c r="O14">
-        <v>0.00694864321432267</v>
+        <v>0.0002633550873391757</v>
       </c>
       <c r="P14">
-        <v>0.006948643214322671</v>
+        <v>0.0002633550873391756</v>
       </c>
       <c r="Q14">
-        <v>0.02107100858666667</v>
+        <v>0.005949894437333334</v>
       </c>
       <c r="R14">
-        <v>0.18963907728</v>
+        <v>0.053549049936</v>
       </c>
       <c r="S14">
-        <v>6.396225069070456E-06</v>
+        <v>1.954736765924665E-06</v>
       </c>
       <c r="T14">
-        <v>6.396225069070458E-06</v>
+        <v>1.954736765924664E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02822</v>
+        <v>0.217234</v>
       </c>
       <c r="H15">
-        <v>0.08466</v>
+        <v>0.651702</v>
       </c>
       <c r="I15">
-        <v>0.0009204998546891055</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="J15">
-        <v>0.0009204998546891056</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.120135666666667</v>
+        <v>2.522098333333334</v>
       </c>
       <c r="N15">
-        <v>6.360407</v>
+        <v>7.566295</v>
       </c>
       <c r="O15">
-        <v>0.01973037549012343</v>
+        <v>0.02425058758347493</v>
       </c>
       <c r="P15">
-        <v>0.01973037549012344</v>
+        <v>0.02425058758347493</v>
       </c>
       <c r="Q15">
-        <v>0.05983022851333333</v>
+        <v>0.5478855093433334</v>
       </c>
       <c r="R15">
-        <v>0.53847205662</v>
+        <v>4.930969584090001</v>
       </c>
       <c r="S15">
-        <v>1.816180777162011E-05</v>
+        <v>0.000179998478949615</v>
       </c>
       <c r="T15">
-        <v>1.816180777162012E-05</v>
+        <v>0.0001799984789496149</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02822</v>
+        <v>0.217234</v>
       </c>
       <c r="H16">
-        <v>0.08466</v>
+        <v>0.651702</v>
       </c>
       <c r="I16">
-        <v>0.0009204998546891055</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="J16">
-        <v>0.0009204998546891056</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.3524423333333334</v>
+        <v>0.03980966666666667</v>
       </c>
       <c r="N16">
-        <v>1.057327</v>
+        <v>0.119429</v>
       </c>
       <c r="O16">
-        <v>0.003279893680678885</v>
+        <v>0.000382779606730484</v>
       </c>
       <c r="P16">
-        <v>0.003279893680678885</v>
+        <v>0.0003827796067304839</v>
       </c>
       <c r="Q16">
-        <v>0.009945922646666668</v>
+        <v>0.008648013128666667</v>
       </c>
       <c r="R16">
-        <v>0.08951330382000001</v>
+        <v>0.07783211815799999</v>
       </c>
       <c r="S16">
-        <v>3.019141656460629E-06</v>
+        <v>2.841157837815412E-06</v>
       </c>
       <c r="T16">
-        <v>3.01914165646063E-06</v>
+        <v>2.841157837815411E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.436453</v>
+        <v>0.021265</v>
       </c>
       <c r="H17">
-        <v>1.309359</v>
+        <v>0.063795</v>
       </c>
       <c r="I17">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403718</v>
       </c>
       <c r="J17">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403719</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>92.46980033333334</v>
+        <v>89.64587133333333</v>
       </c>
       <c r="N17">
-        <v>277.409401</v>
+        <v>268.937614</v>
       </c>
       <c r="O17">
-        <v>0.860541101571051</v>
+        <v>0.8619668097526958</v>
       </c>
       <c r="P17">
-        <v>0.860541101571051</v>
+        <v>0.8619668097526956</v>
       </c>
       <c r="Q17">
-        <v>40.35872176488434</v>
+        <v>1.906319453903333</v>
       </c>
       <c r="R17">
-        <v>363.2284958839591</v>
+        <v>17.15687508513</v>
       </c>
       <c r="S17">
-        <v>0.01225112062606917</v>
+        <v>0.0006262888801456414</v>
       </c>
       <c r="T17">
-        <v>0.01225112062606918</v>
+        <v>0.0006262888801456414</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.436453</v>
+        <v>0.021265</v>
       </c>
       <c r="H18">
-        <v>1.309359</v>
+        <v>0.063795</v>
       </c>
       <c r="I18">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403718</v>
       </c>
       <c r="J18">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403719</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.299099</v>
       </c>
       <c r="O18">
-        <v>0.109499986043824</v>
+        <v>0.1131364679697596</v>
       </c>
       <c r="P18">
-        <v>0.109499986043824</v>
+        <v>0.1131364679697596</v>
       </c>
       <c r="Q18">
-        <v>5.135465885282334</v>
+        <v>0.2502117800783333</v>
       </c>
       <c r="R18">
-        <v>46.21919296754101</v>
+        <v>2.251906020705</v>
       </c>
       <c r="S18">
-        <v>0.001558900016660062</v>
+        <v>8.220283081287443E-05</v>
       </c>
       <c r="T18">
-        <v>0.001558900016660062</v>
+        <v>8.220283081287443E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,55 +1585,55 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.436453</v>
+        <v>0.021265</v>
       </c>
       <c r="H19">
-        <v>1.309359</v>
+        <v>0.063795</v>
       </c>
       <c r="I19">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403718</v>
       </c>
       <c r="J19">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403719</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.7466693333333333</v>
+        <v>0.02738933333333333</v>
       </c>
       <c r="N19">
-        <v>2.240008</v>
+        <v>0.082168</v>
       </c>
       <c r="O19">
-        <v>0.00694864321432267</v>
+        <v>0.0002633550873391757</v>
       </c>
       <c r="P19">
-        <v>0.006948643214322671</v>
+        <v>0.0002633550873391756</v>
       </c>
       <c r="Q19">
-        <v>0.3258860705413333</v>
+        <v>0.0005824341733333334</v>
       </c>
       <c r="R19">
-        <v>2.932974634872</v>
+        <v>0.005241907560000001</v>
       </c>
       <c r="S19">
-        <v>9.892457902448647E-05</v>
+        <v>1.913488557379968E-07</v>
       </c>
       <c r="T19">
-        <v>9.892457902448651E-05</v>
+        <v>1.913488557379968E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.436453</v>
+        <v>0.021265</v>
       </c>
       <c r="H20">
-        <v>1.309359</v>
+        <v>0.063795</v>
       </c>
       <c r="I20">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403718</v>
       </c>
       <c r="J20">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403719</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.120135666666667</v>
+        <v>2.522098333333334</v>
       </c>
       <c r="N20">
-        <v>6.360407</v>
+        <v>7.566295</v>
       </c>
       <c r="O20">
-        <v>0.01973037549012343</v>
+        <v>0.02425058758347493</v>
       </c>
       <c r="P20">
-        <v>0.01973037549012344</v>
+        <v>0.02425058758347493</v>
       </c>
       <c r="Q20">
-        <v>0.9253395721236667</v>
+        <v>0.05363242105833334</v>
       </c>
       <c r="R20">
-        <v>8.328056149113001</v>
+        <v>0.482691789525</v>
       </c>
       <c r="S20">
-        <v>0.0002808921150725341</v>
+        <v>1.762002105961112E-05</v>
       </c>
       <c r="T20">
-        <v>0.0002808921150725342</v>
+        <v>1.762002105961112E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.436453</v>
+        <v>0.021265</v>
       </c>
       <c r="H21">
-        <v>1.309359</v>
+        <v>0.063795</v>
       </c>
       <c r="I21">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403718</v>
       </c>
       <c r="J21">
-        <v>0.01423653164701007</v>
+        <v>0.0007265812013403719</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.3524423333333334</v>
+        <v>0.03980966666666667</v>
       </c>
       <c r="N21">
-        <v>1.057327</v>
+        <v>0.119429</v>
       </c>
       <c r="O21">
-        <v>0.003279893680678885</v>
+        <v>0.000382779606730484</v>
       </c>
       <c r="P21">
-        <v>0.003279893680678885</v>
+        <v>0.0003827796067304839</v>
       </c>
       <c r="Q21">
-        <v>0.1538245137103333</v>
+        <v>0.0008465525616666668</v>
       </c>
       <c r="R21">
-        <v>1.384420623393</v>
+        <v>0.007618973055</v>
       </c>
       <c r="S21">
-        <v>4.669431018381328E-05</v>
+        <v>2.781204665068301E-07</v>
       </c>
       <c r="T21">
-        <v>4.66943101838133E-05</v>
+        <v>2.781204665068301E-07</v>
       </c>
     </row>
   </sheetData>
